--- a/_stats/page_load_times.xlsx
+++ b/_stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="342">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -1029,6 +1029,15 @@
   </si>
   <si>
     <t>516</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>3502</t>
+  </si>
+  <si>
+    <t>4407</t>
   </si>
 </sst>
 </file>
@@ -1603,6 +1612,9 @@
       <c r="I14" t="s">
         <v>118</v>
       </c>
+      <c r="J14" t="s">
+        <v>340</v>
+      </c>
       <c r="K14" t="s">
         <v>154</v>
       </c>
@@ -1626,6 +1638,9 @@
       <c r="I15" t="s">
         <v>120</v>
       </c>
+      <c r="J15" t="s">
+        <v>341</v>
+      </c>
       <c r="K15" t="s">
         <v>155</v>
       </c>
@@ -1702,6 +1717,9 @@
     <row r="19">
       <c r="A19" t="s">
         <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>339</v>
       </c>
       <c r="H19" t="s">
         <v>105</v>

--- a/_stats/page_load_times.xlsx
+++ b/_stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="379">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -1038,6 +1038,117 @@
   </si>
   <si>
     <t>4407</t>
+  </si>
+  <si>
+    <t>4418</t>
+  </si>
+  <si>
+    <t>3961</t>
+  </si>
+  <si>
+    <t>3880</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>3541</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>3331</t>
+  </si>
+  <si>
+    <t>4510</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>4592</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>3752</t>
+  </si>
+  <si>
+    <t>3489</t>
+  </si>
+  <si>
+    <t>3341</t>
+  </si>
+  <si>
+    <t>3254</t>
+  </si>
+  <si>
+    <t>3746</t>
+  </si>
+  <si>
+    <t>3149</t>
+  </si>
+  <si>
+    <t>3610</t>
+  </si>
+  <si>
+    <t>3695</t>
+  </si>
+  <si>
+    <t>3456</t>
+  </si>
+  <si>
+    <t>3297</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>3801</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3782</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>3113</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>2885</t>
+  </si>
+  <si>
+    <t>3597</t>
+  </si>
+  <si>
+    <t>3498</t>
+  </si>
+  <si>
+    <t>3789</t>
+  </si>
+  <si>
+    <t>2974</t>
+  </si>
+  <si>
+    <t>2839</t>
+  </si>
+  <si>
+    <t>3574</t>
   </si>
 </sst>
 </file>
@@ -1664,6 +1775,9 @@
       <c r="I16" t="s">
         <v>123</v>
       </c>
+      <c r="J16" t="s">
+        <v>342</v>
+      </c>
       <c r="K16" t="s">
         <v>156</v>
       </c>
@@ -1687,6 +1801,9 @@
       <c r="I17" t="s">
         <v>109</v>
       </c>
+      <c r="J17" t="s">
+        <v>343</v>
+      </c>
       <c r="K17" t="s">
         <v>157</v>
       </c>
@@ -1707,6 +1824,9 @@
       <c r="I18" t="s">
         <v>92</v>
       </c>
+      <c r="J18" t="s">
+        <v>344</v>
+      </c>
       <c r="K18" t="s">
         <v>158</v>
       </c>
@@ -1727,6 +1847,9 @@
       <c r="I19" t="s">
         <v>135</v>
       </c>
+      <c r="J19" t="s">
+        <v>345</v>
+      </c>
       <c r="K19" t="s">
         <v>159</v>
       </c>
@@ -1744,6 +1867,9 @@
       <c r="I20" t="s">
         <v>138</v>
       </c>
+      <c r="J20" t="s">
+        <v>346</v>
+      </c>
       <c r="K20" t="s">
         <v>160</v>
       </c>
@@ -1758,6 +1884,9 @@
       <c r="H21" t="s">
         <v>110</v>
       </c>
+      <c r="J21" t="s">
+        <v>347</v>
+      </c>
       <c r="K21" t="s">
         <v>161</v>
       </c>
@@ -1772,6 +1901,9 @@
       <c r="H22" t="s">
         <v>116</v>
       </c>
+      <c r="J22" t="s">
+        <v>348</v>
+      </c>
       <c r="K22" t="s">
         <v>162</v>
       </c>
@@ -1786,6 +1918,9 @@
       <c r="H23" t="s">
         <v>119</v>
       </c>
+      <c r="J23" t="s">
+        <v>349</v>
+      </c>
       <c r="K23" t="s">
         <v>148</v>
       </c>
@@ -1800,6 +1935,9 @@
       <c r="H24" t="s">
         <v>121</v>
       </c>
+      <c r="J24" t="s">
+        <v>350</v>
+      </c>
       <c r="K24" t="s">
         <v>4</v>
       </c>
@@ -1814,6 +1952,9 @@
       <c r="H25" t="s">
         <v>124</v>
       </c>
+      <c r="J25" t="s">
+        <v>351</v>
+      </c>
       <c r="K25" t="s">
         <v>163</v>
       </c>
@@ -1828,6 +1969,9 @@
       <c r="H26" t="s">
         <v>126</v>
       </c>
+      <c r="J26" t="s">
+        <v>352</v>
+      </c>
       <c r="K26" t="s">
         <v>164</v>
       </c>
@@ -1842,6 +1986,9 @@
       <c r="H27" t="s">
         <v>127</v>
       </c>
+      <c r="J27" t="s">
+        <v>353</v>
+      </c>
       <c r="K27" t="s">
         <v>165</v>
       </c>
@@ -1856,6 +2003,9 @@
       <c r="H28" t="s">
         <v>128</v>
       </c>
+      <c r="J28" t="s">
+        <v>354</v>
+      </c>
       <c r="K28" t="s">
         <v>166</v>
       </c>
@@ -1870,6 +2020,9 @@
       <c r="H29" t="s">
         <v>129</v>
       </c>
+      <c r="J29" t="s">
+        <v>355</v>
+      </c>
       <c r="K29" t="s">
         <v>167</v>
       </c>
@@ -1878,9 +2031,15 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>367</v>
+      </c>
       <c r="H30" t="s">
         <v>130</v>
       </c>
+      <c r="J30" t="s">
+        <v>356</v>
+      </c>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -1889,9 +2048,15 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>368</v>
+      </c>
       <c r="H31" t="s">
         <v>131</v>
       </c>
+      <c r="J31" t="s">
+        <v>357</v>
+      </c>
       <c r="K31" t="s">
         <v>40</v>
       </c>
@@ -1900,9 +2065,15 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>369</v>
+      </c>
       <c r="H32" t="s">
         <v>133</v>
       </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
       <c r="K32" t="s">
         <v>169</v>
       </c>
@@ -1911,9 +2082,15 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>370</v>
+      </c>
       <c r="H33" t="s">
         <v>136</v>
       </c>
+      <c r="J33" t="s">
+        <v>358</v>
+      </c>
       <c r="K33" t="s">
         <v>40</v>
       </c>
@@ -1922,9 +2099,15 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="s">
+        <v>371</v>
+      </c>
       <c r="H34" t="s">
         <v>139</v>
       </c>
+      <c r="J34" t="s">
+        <v>359</v>
+      </c>
       <c r="K34" t="s">
         <v>170</v>
       </c>
@@ -1933,6 +2116,12 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J35" t="s">
+        <v>360</v>
+      </c>
       <c r="K35" t="s">
         <v>171</v>
       </c>
@@ -1941,6 +2130,12 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>373</v>
+      </c>
+      <c r="J36" t="s">
+        <v>361</v>
+      </c>
       <c r="K36" t="s">
         <v>172</v>
       </c>
@@ -1949,6 +2144,12 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>374</v>
+      </c>
+      <c r="J37" t="s">
+        <v>362</v>
+      </c>
       <c r="K37" t="s">
         <v>173</v>
       </c>
@@ -1957,6 +2158,12 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>375</v>
+      </c>
+      <c r="J38" t="s">
+        <v>363</v>
+      </c>
       <c r="K38" t="s">
         <v>174</v>
       </c>
@@ -1965,6 +2172,12 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J39" t="s">
+        <v>364</v>
+      </c>
       <c r="K39" t="s">
         <v>175</v>
       </c>
@@ -1973,6 +2186,12 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="s">
+        <v>377</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
       <c r="K40" t="s">
         <v>176</v>
       </c>
@@ -1981,6 +2200,12 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="s">
+        <v>378</v>
+      </c>
+      <c r="J41" t="s">
+        <v>366</v>
+      </c>
       <c r="K41" t="s">
         <v>177</v>
       </c>

--- a/_stats/page_load_times.xlsx
+++ b/_stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="427">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -1149,6 +1149,150 @@
   </si>
   <si>
     <t>3574</t>
+  </si>
+  <si>
+    <t>3182</t>
+  </si>
+  <si>
+    <t>4737</t>
+  </si>
+  <si>
+    <t>https://www.engprod-charter.net/</t>
+  </si>
+  <si>
+    <t>44530</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>https://www.engprod-charter.net</t>
+  </si>
+  <si>
+    <t>18055</t>
+  </si>
+  <si>
+    <t>8292</t>
+  </si>
+  <si>
+    <t>45834</t>
+  </si>
+  <si>
+    <t>7643</t>
+  </si>
+  <si>
+    <t>https://www.google.pl</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>https://javascript.info/</t>
+  </si>
+  <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1566</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>1446</t>
   </si>
 </sst>
 </file>
@@ -1156,13 +1300,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1245,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
@@ -1283,13 +1447,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L209"/>
+  <dimension ref="A1:P209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1307,6 +1483,10 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="43.375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="32.0234375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="35.05859375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="45.484375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="44.1953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="30.3125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.390625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1346,6 +1526,18 @@
       <c r="L1" s="12" t="s">
         <v>183</v>
       </c>
+      <c r="M1" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1384,6 +1576,18 @@
       <c r="L2" t="s">
         <v>184</v>
       </c>
+      <c r="M2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P2" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1422,6 +1626,15 @@
       <c r="L3" t="s">
         <v>185</v>
       </c>
+      <c r="N3" t="s">
+        <v>386</v>
+      </c>
+      <c r="O3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1460,6 +1673,15 @@
       <c r="L4" t="s">
         <v>186</v>
       </c>
+      <c r="N4" t="s">
+        <v>387</v>
+      </c>
+      <c r="O4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1498,6 +1720,15 @@
       <c r="L5" t="s">
         <v>187</v>
       </c>
+      <c r="N5" t="s">
+        <v>388</v>
+      </c>
+      <c r="O5" t="s">
+        <v>392</v>
+      </c>
+      <c r="P5" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1524,6 +1755,12 @@
       <c r="L6" t="s">
         <v>188</v>
       </c>
+      <c r="O6" t="s">
+        <v>393</v>
+      </c>
+      <c r="P6" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1550,6 +1787,12 @@
       <c r="L7" t="s">
         <v>189</v>
       </c>
+      <c r="O7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1576,6 +1819,12 @@
       <c r="L8" t="s">
         <v>191</v>
       </c>
+      <c r="O8" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1602,6 +1851,12 @@
       <c r="L9" t="s">
         <v>192</v>
       </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1628,6 +1883,12 @@
       <c r="L10" t="s">
         <v>193</v>
       </c>
+      <c r="O10" t="s">
+        <v>394</v>
+      </c>
+      <c r="P10" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1654,6 +1915,12 @@
       <c r="L11" t="s">
         <v>194</v>
       </c>
+      <c r="O11" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1680,6 +1947,12 @@
       <c r="L12" t="s">
         <v>195</v>
       </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1706,6 +1979,12 @@
       <c r="L13" t="s">
         <v>196</v>
       </c>
+      <c r="O13" t="s">
+        <v>395</v>
+      </c>
+      <c r="P13" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1732,6 +2011,12 @@
       <c r="L14" t="s">
         <v>197</v>
       </c>
+      <c r="O14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1758,6 +2043,12 @@
       <c r="L15" t="s">
         <v>198</v>
       </c>
+      <c r="O15" t="s">
+        <v>397</v>
+      </c>
+      <c r="P15" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1784,6 +2075,9 @@
       <c r="L16" t="s">
         <v>199</v>
       </c>
+      <c r="P16" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1810,6 +2104,9 @@
       <c r="L17" t="s">
         <v>200</v>
       </c>
+      <c r="P17" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1833,6 +2130,9 @@
       <c r="L18" t="s">
         <v>201</v>
       </c>
+      <c r="P18" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1856,6 +2156,9 @@
       <c r="L19" t="s">
         <v>202</v>
       </c>
+      <c r="P19" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1876,6 +2179,9 @@
       <c r="L20" t="s">
         <v>203</v>
       </c>
+      <c r="P20" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1893,6 +2199,9 @@
       <c r="L21" t="s">
         <v>204</v>
       </c>
+      <c r="P21" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1910,6 +2219,9 @@
       <c r="L22" t="s">
         <v>205</v>
       </c>
+      <c r="P22" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1927,6 +2239,9 @@
       <c r="L23" t="s">
         <v>206</v>
       </c>
+      <c r="P23" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1944,6 +2259,9 @@
       <c r="L24" t="s">
         <v>207</v>
       </c>
+      <c r="P24" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1961,6 +2279,9 @@
       <c r="L25" t="s">
         <v>208</v>
       </c>
+      <c r="P25" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1978,6 +2299,9 @@
       <c r="L26" t="s">
         <v>209</v>
       </c>
+      <c r="P26" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1995,6 +2319,9 @@
       <c r="L27" t="s">
         <v>210</v>
       </c>
+      <c r="P27" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2119,6 +2446,9 @@
       <c r="A35" t="s">
         <v>372</v>
       </c>
+      <c r="H35" t="s">
+        <v>398</v>
+      </c>
       <c r="J35" t="s">
         <v>360</v>
       </c>
@@ -2133,6 +2463,9 @@
       <c r="A36" t="s">
         <v>373</v>
       </c>
+      <c r="H36" t="s">
+        <v>399</v>
+      </c>
       <c r="J36" t="s">
         <v>361</v>
       </c>
@@ -2214,6 +2547,9 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="s">
+        <v>379</v>
+      </c>
       <c r="K42" t="s">
         <v>169</v>
       </c>
@@ -2222,6 +2558,9 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="s">
+        <v>380</v>
+      </c>
       <c r="K43" t="s">
         <v>177</v>
       </c>
@@ -2230,6 +2569,9 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="s">
+        <v>383</v>
+      </c>
       <c r="K44" t="s">
         <v>148</v>
       </c>

--- a/_stats/page_load_times.xlsx
+++ b/_stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="436">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -1293,6 +1293,33 @@
   </si>
   <si>
     <t>1446</t>
+  </si>
+  <si>
+    <t>1646</t>
+  </si>
+  <si>
+    <t>https://regex101.com/</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>https://www.onet.pl/</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>https://www.fly4free.pl/</t>
+  </si>
+  <si>
+    <t>2067</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1327,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1409,7 +1451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
@@ -1459,13 +1501,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P209"/>
+  <dimension ref="A1:S209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1487,6 +1538,9 @@
     <col min="14" max="14" bestFit="true" customWidth="true" width="44.1953125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="30.3125" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="30.390625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.1875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="29.0546875" collapsed="true"/>
+    <col min="19" max="19" width="32.9453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1538,6 +1592,15 @@
       <c r="P1" s="16" t="s">
         <v>400</v>
       </c>
+      <c r="Q1" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1588,6 +1651,15 @@
       <c r="P2" t="s">
         <v>401</v>
       </c>
+      <c r="Q2" t="s">
+        <v>429</v>
+      </c>
+      <c r="R2" t="s">
+        <v>433</v>
+      </c>
+      <c r="S2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1635,6 +1707,9 @@
       <c r="P3" t="s">
         <v>402</v>
       </c>
+      <c r="Q3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1682,6 +1757,9 @@
       <c r="P4" t="s">
         <v>403</v>
       </c>
+      <c r="Q4" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2338,6 +2416,9 @@
       </c>
       <c r="L28" t="s">
         <v>211</v>
+      </c>
+      <c r="P28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="29">
